--- a/som_analysis_parameters.xlsx
+++ b/som_analysis_parameters.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFB6CE3-B3EB-4923-A31E-05FDEE9B55F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085F5AE-EC3C-4A8C-9CDE-B17132CA1C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_parameters" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="362">
   <si>
     <t>Indicator being modelled</t>
   </si>
@@ -902,9 +902,6 @@
     <t>district</t>
   </si>
   <si>
-    <t>either</t>
-  </si>
-  <si>
     <t>0,0.25,0.50,100</t>
   </si>
   <si>
@@ -1129,12 +1126,6 @@
     <t>sam_admissions_rate_lag2</t>
   </si>
   <si>
-    <t>displacement.flow</t>
-  </si>
-  <si>
-    <t>drought</t>
-  </si>
-  <si>
     <t>idp_prmn</t>
   </si>
   <si>
@@ -1169,6 +1160,27 @@
   </si>
   <si>
     <t>same % not leaving because of drought as IDPs</t>
+  </si>
+  <si>
+    <t>glm</t>
+  </si>
+  <si>
+    <t>som_idp_prmn_counterfactuals.csv</t>
+  </si>
+  <si>
+    <t>all displacement due to "drought" set to 0</t>
+  </si>
+  <si>
+    <t>displacement due to "drought" set to 0.25 of original value</t>
+  </si>
+  <si>
+    <t>all displacement due to "drought" set to 0, displacement due to other causes set to 0.75 of original value</t>
+  </si>
+  <si>
+    <t>same number of refugees</t>
+  </si>
+  <si>
+    <t>no refugees at all</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1278,12 +1290,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1475,10 +1481,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1496,6 +1498,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1971,7 +1977,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2548,7 +2554,7 @@
         <v>240</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>241</v>
@@ -2566,7 +2572,7 @@
         <v>145</v>
       </c>
       <c r="B33" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>78</v>
@@ -2790,7 +2796,7 @@
     </row>
     <row r="2" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>222</v>
@@ -2806,15 +2812,15 @@
         <v>22</v>
       </c>
       <c r="G2" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="51" t="s">
         <v>276</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>277</v>
       </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
       <c r="L2" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O2" s="53"/>
       <c r="P2" s="53"/>
@@ -2835,22 +2841,22 @@
         <v>22</v>
       </c>
       <c r="G3" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>279</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>280</v>
       </c>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>222</v>
@@ -2868,7 +2874,7 @@
     </row>
     <row r="5" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>26</v>
@@ -2882,22 +2888,22 @@
         <v>22</v>
       </c>
       <c r="G5" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>283</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>284</v>
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
       <c r="L5" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="53"/>
     </row>
     <row r="6" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>26</v>
@@ -2911,10 +2917,10 @@
         <v>22</v>
       </c>
       <c r="G6" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>283</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>284</v>
       </c>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
@@ -2924,7 +2930,7 @@
     </row>
     <row r="7" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>26</v>
@@ -2938,10 +2944,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
@@ -2951,7 +2957,7 @@
     </row>
     <row r="8" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>26</v>
@@ -2965,23 +2971,23 @@
         <v>22</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
       <c r="L8" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
     </row>
     <row r="9" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>26</v>
@@ -2995,10 +3001,10 @@
         <v>236</v>
       </c>
       <c r="H9" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="I9" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>292</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
@@ -3008,7 +3014,7 @@
     </row>
     <row r="10" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>222</v>
@@ -3022,22 +3028,22 @@
         <v>22</v>
       </c>
       <c r="G10" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" s="51" t="s">
         <v>293</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>294</v>
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
     </row>
     <row r="11" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>26</v>
@@ -3051,25 +3057,25 @@
         <v>22</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="J11" s="52" t="s">
         <v>297</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>298</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
     </row>
     <row r="12" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>222</v>
@@ -3083,17 +3089,17 @@
         <v>22</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52">
         <v>2</v>
       </c>
       <c r="L12" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
@@ -3116,10 +3122,10 @@
         <v>236</v>
       </c>
       <c r="H13" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" s="51" t="s">
         <v>301</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>302</v>
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
@@ -3143,15 +3149,15 @@
         <v>22</v>
       </c>
       <c r="G14" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" s="51" t="s">
         <v>303</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>304</v>
       </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
       <c r="L14" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O14" s="53"/>
       <c r="P14" s="53"/>
@@ -3172,11 +3178,11 @@
         <v>22</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="16" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>222</v>
@@ -3202,10 +3208,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="I16" s="51" t="s">
         <v>307</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>308</v>
       </c>
       <c r="J16" s="52"/>
       <c r="K16" s="52">
@@ -3231,22 +3237,22 @@
         <v>22</v>
       </c>
       <c r="G17" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" s="51" t="s">
         <v>309</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>310</v>
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
       <c r="L17" s="52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O17" s="53"/>
       <c r="P17" s="53"/>
     </row>
     <row r="18" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>26</v>
@@ -3260,23 +3266,23 @@
         <v>22</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
       <c r="L18" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O18" s="53"/>
       <c r="P18" s="53"/>
     </row>
     <row r="19" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>26</v>
@@ -3290,27 +3296,27 @@
         <v>22</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="J19" s="52" t="s">
         <v>314</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>315</v>
       </c>
       <c r="K19" s="52">
         <v>1</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
     </row>
     <row r="20" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>26</v>
@@ -3325,14 +3331,14 @@
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
       <c r="L20" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
     </row>
     <row r="21" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>26</v>
@@ -3346,11 +3352,11 @@
         <v>22</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
@@ -3360,7 +3366,7 @@
     </row>
     <row r="22" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>26</v>
@@ -3374,11 +3380,11 @@
         <v>22</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
@@ -3388,7 +3394,7 @@
     </row>
     <row r="23" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>26</v>
@@ -3402,23 +3408,23 @@
         <v>22</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
     </row>
     <row r="24" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>26</v>
@@ -3432,11 +3438,11 @@
         <v>22</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J24" s="52"/>
       <c r="K24" s="52">
@@ -3489,7 +3495,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3507,8 +3513,8 @@
     <col min="11" max="11" width="10.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="68.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="89.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
@@ -3561,7 +3567,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>209</v>
@@ -3583,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J2" s="55">
         <v>41640</v>
@@ -3597,7 +3603,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>209</v>
@@ -3619,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J3" s="55">
         <v>41640</v>
@@ -3633,7 +3639,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>209</v>
@@ -3655,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J4" s="55">
         <v>41640</v>
@@ -3669,7 +3675,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>209</v>
@@ -3703,7 +3709,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>209</v>
@@ -3732,7 +3738,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>209</v>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>209</v>
@@ -3783,7 +3789,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J8" s="55">
         <v>41640</v>
@@ -3797,7 +3803,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>209</v>
@@ -3826,7 +3832,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>209</v>
@@ -3855,7 +3861,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>209</v>
@@ -3877,7 +3883,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J11" s="55">
         <v>41640</v>
@@ -3891,7 +3897,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>209</v>
@@ -3920,7 +3926,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>209</v>
@@ -3947,213 +3953,226 @@
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
     </row>
-    <row r="14" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="50" t="s">
+    <row r="14" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="50" t="b">
+      <c r="C14" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="50" t="b">
+      <c r="E14" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="59" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="O14" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+    </row>
+    <row r="15" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-    </row>
-    <row r="15" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="50" t="b">
+      <c r="C15" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="50" t="b">
+      <c r="E15" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-    </row>
-    <row r="16" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+    </row>
+    <row r="16" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="50" t="b">
+      <c r="C16" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="50" t="b">
+      <c r="E16" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-    </row>
-    <row r="17" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+    </row>
+    <row r="17" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="D17" s="50" t="b">
+      <c r="C17" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="50" t="b">
+      <c r="E17" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66">
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62">
         <v>0.46</v>
       </c>
-      <c r="N17" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-    </row>
-    <row r="18" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="50" t="s">
+      <c r="O17" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+    </row>
+    <row r="18" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="50" t="b">
+      <c r="C18" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="50" t="b">
+      <c r="E18" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66">
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62">
+        <v>1</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+    </row>
+    <row r="19" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62">
         <v>0</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-    </row>
-    <row r="19" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66">
-        <v>1</v>
-      </c>
+      <c r="M19" s="62"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
+      <c r="O19" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4241,17 +4260,17 @@
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="63">
+        <v>1</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>346</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="67">
-        <v>1</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>349</v>
       </c>
       <c r="I2" s="54">
         <v>0.5</v>
@@ -4264,7 +4283,7 @@
       </c>
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="64" t="s">
         <v>110</v>
       </c>
       <c r="O2" s="25"/>
@@ -4279,17 +4298,17 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="63">
+        <v>2</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>347</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="67">
-        <v>2</v>
-      </c>
-      <c r="H3" s="67" t="s">
-        <v>350</v>
       </c>
       <c r="I3" s="54">
         <v>0.7</v>
@@ -4302,8 +4321,8 @@
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="54"/>
-      <c r="N3" s="68" t="s">
-        <v>351</v>
+      <c r="N3" s="64" t="s">
+        <v>348</v>
       </c>
       <c r="O3" s="25"/>
       <c r="P3" s="44"/>
@@ -4317,17 +4336,17 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="67" t="s">
+      <c r="E4" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="63">
         <v>2</v>
       </c>
-      <c r="H4" s="67" t="s">
-        <v>350</v>
+      <c r="H4" s="63" t="s">
+        <v>347</v>
       </c>
       <c r="I4" s="54">
         <v>0.7</v>
@@ -4340,8 +4359,8 @@
       </c>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
-      <c r="N4" s="68" t="s">
-        <v>351</v>
+      <c r="N4" s="64" t="s">
+        <v>348</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="44"/>
@@ -4355,17 +4374,17 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="67" t="s">
-        <v>353</v>
-      </c>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="63">
         <v>2</v>
       </c>
-      <c r="H5" s="67" t="s">
-        <v>350</v>
+      <c r="H5" s="63" t="s">
+        <v>347</v>
       </c>
       <c r="I5" s="54">
         <v>0.7</v>
@@ -4378,8 +4397,8 @@
       </c>
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
-      <c r="N5" s="68" t="s">
-        <v>351</v>
+      <c r="N5" s="64" t="s">
+        <v>348</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="44"/>
@@ -4393,17 +4412,17 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="63">
         <v>2</v>
       </c>
-      <c r="H6" s="67" t="s">
-        <v>350</v>
+      <c r="H6" s="63" t="s">
+        <v>347</v>
       </c>
       <c r="I6" s="54">
         <v>0.7</v>
@@ -4416,8 +4435,8 @@
       </c>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="68" t="s">
-        <v>351</v>
+      <c r="N6" s="64" t="s">
+        <v>348</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="44"/>
@@ -4433,12 +4452,12 @@
         <v>251</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63">
         <v>1</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I7" s="54">
@@ -4452,7 +4471,7 @@
       </c>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="68" t="s">
+      <c r="N7" s="64" t="s">
         <v>112</v>
       </c>
       <c r="O7" s="25"/>
@@ -4473,10 +4492,10 @@
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
-      <c r="G8" s="67">
+      <c r="G8" s="63">
         <v>1</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I8" s="50"/>
@@ -4484,7 +4503,7 @@
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
       <c r="M8" s="50"/>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="64" t="s">
         <v>113</v>
       </c>
       <c r="O8" s="15"/>
@@ -4505,10 +4524,10 @@
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
-      <c r="G9" s="67">
+      <c r="G9" s="63">
         <v>1</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="63" t="s">
         <v>253</v>
       </c>
       <c r="I9" s="50"/>
@@ -4516,7 +4535,7 @@
       <c r="K9" s="50"/>
       <c r="L9" s="50"/>
       <c r="M9" s="50"/>
-      <c r="N9" s="68" t="s">
+      <c r="N9" s="64" t="s">
         <v>114</v>
       </c>
       <c r="O9" s="15"/>

--- a/som_analysis_parameters.xlsx
+++ b/som_analysis_parameters.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C085F5AE-EC3C-4A8C-9CDE-B17132CA1C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8482FE-D254-49E0-8AB2-411EDF216A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_parameters" sheetId="1" r:id="rId1"/>
@@ -902,11 +902,263 @@
     <t>district</t>
   </si>
   <si>
-    <t>0,0.25,0.50,100</t>
+    <t>forced in to make model as comparable as possible with 2012 one</t>
+  </si>
+  <si>
+    <t>0,0.000000001,5,1000</t>
+  </si>
+  <si>
+    <t>forced out as likely collinear with acled_event.rate</t>
+  </si>
+  <si>
+    <t>admin0</t>
+  </si>
+  <si>
+    <t>0,0.000000001,100</t>
+  </si>
+  <si>
+    <t>0, &gt; 0</t>
+  </si>
+  <si>
+    <t>forced out as likely collinear with aidworkers_wounded.rate, which is less sparse</t>
+  </si>
+  <si>
+    <t>0,0.000000001,10000</t>
+  </si>
+  <si>
+    <t>0,10,100,100000</t>
+  </si>
+  <si>
+    <t>&lt; 10, 10 to 99, ≥ 100</t>
+  </si>
+  <si>
+    <t>forced out because it constrains the analysis period to 2016+</t>
+  </si>
+  <si>
+    <t>lhz</t>
+  </si>
+  <si>
+    <t>agropastoralists,pastoralists,riverine,urban</t>
+  </si>
+  <si>
+    <t>agropastoralists, pastoralists, agropastoralists, urban</t>
+  </si>
+  <si>
+    <t>0,0.000000001,50,10000</t>
+  </si>
+  <si>
+    <t>0, 1 to 49, ≥ 50</t>
+  </si>
+  <si>
+    <t>forced out as unclear what it represents: health facility utilisation or actual malaria burden? Or is it a correlate of place (latitude)?</t>
+  </si>
+  <si>
+    <t>-100,-0.5,0,0.5,100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≤ -0.50, -0.49 to 0.00, 0.01 to 0.49, ≥ 0.50 </t>
+  </si>
+  <si>
+    <t>≥ 0.50</t>
+  </si>
+  <si>
+    <t>forced out as seems to result in under-prediction at higher values of mortality / non-linear effects</t>
+  </si>
+  <si>
+    <t>forced in to make model as comparable as possible with 2012 one; also a food-security related variable, useful to specify counter-factual</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>Deyr rains, post-Deyr dry, post-Deyr dry, Gu rains, Gu rains, Gu rains, Gu rains, post-Gu dry, post-Gu dry, Deyr rains, Deyr rains, Deyr rains</t>
+  </si>
+  <si>
+    <t>0,0.25,0.9999999999,1</t>
+  </si>
+  <si>
+    <t>0 to 24%, 25 to 49%, 100%</t>
+  </si>
+  <si>
+    <t>0,25,50,75,10000</t>
+  </si>
+  <si>
+    <t>&lt; 25, 25 to 49, 50 to 74, ≥ 75</t>
+  </si>
+  <si>
+    <t>0,100,200,10000</t>
+  </si>
+  <si>
+    <t>&lt; 100, 100 to 199, ≥ 200</t>
+  </si>
+  <si>
+    <t>0,0.90,0.95,1</t>
+  </si>
+  <si>
+    <t>&lt; 0.90, 0.90 to 0.94, ≥ 0.95</t>
+  </si>
+  <si>
+    <t>forced out as did not know how to impute</t>
+  </si>
+  <si>
+    <t>forced out as likely collinear with tot_wage_cereal.smooth.rollmean</t>
+  </si>
+  <si>
+    <t>0,20000,30000,40000,1000000</t>
+  </si>
+  <si>
+    <t>&lt; 20,000, 20,000 to 29,999, 30,000 to 39,999, ≥ 40,000</t>
+  </si>
+  <si>
+    <t>≥ 40,000</t>
+  </si>
+  <si>
+    <t>forced in; this is a critical variable of food security crisis severity</t>
+  </si>
+  <si>
+    <t>0,0.000000001,2.5,5,10000</t>
+  </si>
+  <si>
+    <t>0%, 0.1 to 2.5%, 2.5 to 4.9%, ≥ 5.0%</t>
+  </si>
+  <si>
+    <t>0,5,10,10000</t>
+  </si>
+  <si>
+    <t>&lt;4.9%, 5.0 to 9.9%, ≥ 10.0%</t>
+  </si>
+  <si>
+    <t>0,2.5,5,10000</t>
+  </si>
+  <si>
+    <t>&lt;2.5%, 2.5 to 4.9%, ≥ 5.0%</t>
+  </si>
+  <si>
+    <t>forced out as seems redundant with SAM admissions rate</t>
+  </si>
+  <si>
+    <t>0,5,25,10000</t>
+  </si>
+  <si>
+    <t>&lt;5%, 5 to 24%, ≥ 25%</t>
+  </si>
+  <si>
+    <t>acled_event_rate</t>
+  </si>
+  <si>
+    <t>aidworkers_killed_rate</t>
+  </si>
+  <si>
+    <t>aidworkers_wounded_rate</t>
+  </si>
+  <si>
+    <t>awd_cases_rate</t>
+  </si>
+  <si>
+    <t>idp_lv_rate</t>
+  </si>
+  <si>
+    <t>malaria_cases_rate</t>
+  </si>
+  <si>
+    <t>mean_spi_rollmean</t>
+  </si>
+  <si>
+    <t>measles_cases_rate</t>
+  </si>
+  <si>
+    <t>sam_admissions_rate</t>
+  </si>
+  <si>
+    <t>tot_goat_cereal_smooth</t>
+  </si>
+  <si>
+    <t>tot_wage_cereal_smooth</t>
+  </si>
+  <si>
+    <t>tot_wage_cereal_smooth_rel</t>
+  </si>
+  <si>
+    <t>cash_based_rate</t>
+  </si>
+  <si>
+    <t>rations_rate</t>
+  </si>
+  <si>
+    <t>therapeutic_rate</t>
+  </si>
+  <si>
+    <t>total_beneficiaries_rate</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>sam_admissions_rate_lag2</t>
+  </si>
+  <si>
+    <t>idp_prmn</t>
+  </si>
+  <si>
+    <t>pop_polio_2018</t>
+  </si>
+  <si>
+    <t>idps</t>
+  </si>
+  <si>
+    <t>new displacements</t>
+  </si>
+  <si>
+    <t>population estimates</t>
+  </si>
+  <si>
+    <t>relative to value as computed within script</t>
+  </si>
+  <si>
+    <t>pop_unpess</t>
+  </si>
+  <si>
+    <t>pop_afripop_2015</t>
+  </si>
+  <si>
+    <t>pop_epi_2018</t>
+  </si>
+  <si>
+    <t>net_ref</t>
+  </si>
+  <si>
+    <t>refugees</t>
+  </si>
+  <si>
+    <t>same % not leaving because of drought as IDPs</t>
+  </si>
+  <si>
+    <t>glm</t>
+  </si>
+  <si>
+    <t>som_idp_prmn_counterfactuals.csv</t>
+  </si>
+  <si>
+    <t>all displacement due to "drought" set to 0</t>
+  </si>
+  <si>
+    <t>displacement due to "drought" set to 0.25 of original value</t>
+  </si>
+  <si>
+    <t>all displacement due to "drought" set to 0, displacement due to other causes set to 0.75 of original value</t>
+  </si>
+  <si>
+    <t>same number of refugees</t>
+  </si>
+  <si>
+    <t>no refugees at all</t>
+  </si>
+  <si>
+    <t>0,0.000000001,1,2,100</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">&lt; 0.25, 0.25 to 0.49, </t>
+      <t xml:space="preserve">0.00, 0.01 to 0.99, 1.00 to 1.99, </t>
     </r>
     <r>
       <rPr>
@@ -924,263 +1176,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>0.50</t>
+      <t>2.00</t>
     </r>
   </si>
   <si>
-    <t>forced in to make model as comparable as possible with 2012 one</t>
-  </si>
-  <si>
-    <t>0,0.000000001,5,1000</t>
-  </si>
-  <si>
-    <t>0, 0.1 to 9.9,  ≥ 10.0</t>
-  </si>
-  <si>
-    <t>forced out as likely collinear with acled_event.rate</t>
-  </si>
-  <si>
-    <t>admin0</t>
-  </si>
-  <si>
-    <t>0,0.000000001,100</t>
-  </si>
-  <si>
-    <t>0, &gt; 0</t>
-  </si>
-  <si>
-    <t>forced out as likely collinear with aidworkers_wounded.rate, which is less sparse</t>
-  </si>
-  <si>
-    <t>0,0.000000001,10000</t>
-  </si>
-  <si>
-    <t>0,10,100,100000</t>
-  </si>
-  <si>
-    <t>&lt; 10, 10 to 99, ≥ 100</t>
-  </si>
-  <si>
-    <t>forced out because it constrains the analysis period to 2016+</t>
-  </si>
-  <si>
-    <t>lhz</t>
-  </si>
-  <si>
-    <t>agropastoralists,pastoralists,riverine,urban</t>
-  </si>
-  <si>
-    <t>agropastoralists, pastoralists, agropastoralists, urban</t>
-  </si>
-  <si>
-    <t>0,0.000000001,50,10000</t>
-  </si>
-  <si>
-    <t>0, 1 to 49, ≥ 50</t>
-  </si>
-  <si>
-    <t>forced out as unclear what it represents: health facility utilisation or actual malaria burden? Or is it a correlate of place (latitude)?</t>
-  </si>
-  <si>
-    <t>-100,-0.5,0,0.5,100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">≤ -0.50, -0.49 to 0.00, 0.01 to 0.49, ≥ 0.50 </t>
-  </si>
-  <si>
-    <t>≥ 0.50</t>
-  </si>
-  <si>
-    <t>forced out as seems to result in under-prediction at higher values of mortality / non-linear effects</t>
-  </si>
-  <si>
-    <t>forced in to make model as comparable as possible with 2012 one; also a food-security related variable, useful to specify counter-factual</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
-  </si>
-  <si>
-    <t>Deyr rains, post-Deyr dry, post-Deyr dry, Gu rains, Gu rains, Gu rains, Gu rains, post-Gu dry, post-Gu dry, Deyr rains, Deyr rains, Deyr rains</t>
-  </si>
-  <si>
-    <t>0,0.25,0.9999999999,1</t>
-  </si>
-  <si>
-    <t>0 to 24%, 25 to 49%, 100%</t>
-  </si>
-  <si>
-    <t>0,25,50,75,10000</t>
-  </si>
-  <si>
-    <t>&lt; 25, 25 to 49, 50 to 74, ≥ 75</t>
-  </si>
-  <si>
-    <t>0,100,200,10000</t>
-  </si>
-  <si>
-    <t>&lt; 100, 100 to 199, ≥ 200</t>
-  </si>
-  <si>
-    <t>0,0.90,0.95,1</t>
-  </si>
-  <si>
-    <t>&lt; 0.90, 0.90 to 0.94, ≥ 0.95</t>
-  </si>
-  <si>
-    <t>forced out as did not know how to impute</t>
-  </si>
-  <si>
-    <t>forced out as likely collinear with tot_wage_cereal.smooth.rollmean</t>
-  </si>
-  <si>
-    <t>0,20000,30000,40000,1000000</t>
-  </si>
-  <si>
-    <t>&lt; 20,000, 20,000 to 29,999, 30,000 to 39,999, ≥ 40,000</t>
-  </si>
-  <si>
-    <t>≥ 40,000</t>
-  </si>
-  <si>
-    <t>forced in; this is a critical variable of food security crisis severity</t>
-  </si>
-  <si>
-    <t>0,0.000000001,2.5,5,10000</t>
-  </si>
-  <si>
-    <t>0%, 0.1 to 2.5%, 2.5 to 4.9%, ≥ 5.0%</t>
-  </si>
-  <si>
-    <t>0,5,10,10000</t>
-  </si>
-  <si>
-    <t>&lt;4.9%, 5.0 to 9.9%, ≥ 10.0%</t>
-  </si>
-  <si>
-    <t>0,2.5,5,10000</t>
-  </si>
-  <si>
-    <t>&lt;2.5%, 2.5 to 4.9%, ≥ 5.0%</t>
-  </si>
-  <si>
-    <t>forced out as seems redundant with SAM admissions rate</t>
-  </si>
-  <si>
-    <t>0,5,25,10000</t>
-  </si>
-  <si>
-    <t>&lt;5%, 5 to 24%, ≥ 25%</t>
-  </si>
-  <si>
-    <t>acled_event_rate</t>
-  </si>
-  <si>
-    <t>aidworkers_killed_rate</t>
-  </si>
-  <si>
-    <t>aidworkers_wounded_rate</t>
-  </si>
-  <si>
-    <t>awd_cases_rate</t>
-  </si>
-  <si>
-    <t>idp_lv_rate</t>
-  </si>
-  <si>
-    <t>malaria_cases_rate</t>
-  </si>
-  <si>
-    <t>mean_spi_rollmean</t>
-  </si>
-  <si>
-    <t>measles_cases_rate</t>
-  </si>
-  <si>
-    <t>sam_admissions_rate</t>
-  </si>
-  <si>
-    <t>tot_goat_cereal_smooth</t>
-  </si>
-  <si>
-    <t>tot_wage_cereal_smooth</t>
-  </si>
-  <si>
-    <t>tot_wage_cereal_smooth_rel</t>
-  </si>
-  <si>
-    <t>cash_based_rate</t>
-  </si>
-  <si>
-    <t>rations_rate</t>
-  </si>
-  <si>
-    <t>therapeutic_rate</t>
-  </si>
-  <si>
-    <t>total_beneficiaries_rate</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>sam_admissions_rate_lag2</t>
-  </si>
-  <si>
-    <t>idp_prmn</t>
-  </si>
-  <si>
-    <t>pop_polio_2018</t>
-  </si>
-  <si>
-    <t>idps</t>
-  </si>
-  <si>
-    <t>new displacements</t>
-  </si>
-  <si>
-    <t>population estimates</t>
-  </si>
-  <si>
-    <t>relative to value as computed within script</t>
-  </si>
-  <si>
-    <t>pop_unpess</t>
-  </si>
-  <si>
-    <t>pop_afripop_2015</t>
-  </si>
-  <si>
-    <t>pop_epi_2018</t>
-  </si>
-  <si>
-    <t>net_ref</t>
-  </si>
-  <si>
-    <t>refugees</t>
-  </si>
-  <si>
-    <t>same % not leaving because of drought as IDPs</t>
-  </si>
-  <si>
-    <t>glm</t>
-  </si>
-  <si>
-    <t>som_idp_prmn_counterfactuals.csv</t>
-  </si>
-  <si>
-    <t>all displacement due to "drought" set to 0</t>
-  </si>
-  <si>
-    <t>displacement due to "drought" set to 0.25 of original value</t>
-  </si>
-  <si>
-    <t>all displacement due to "drought" set to 0, displacement due to other causes set to 0.75 of original value</t>
-  </si>
-  <si>
-    <t>same number of refugees</t>
-  </si>
-  <si>
-    <t>no refugees at all</t>
+    <t>0, 0.1 to 4.9,  ≥ 5.0</t>
   </si>
 </sst>
 </file>
@@ -1347,15 +1347,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,16 +1364,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1383,10 +1383,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,7 +1396,7 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,13 +1405,13 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1429,10 +1429,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,11 +1441,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1458,48 +1455,16 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1520,7 +1485,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="predictors_table"/>
@@ -1976,14 +1941,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -2015,7 +1980,7 @@
       <c r="A2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>273</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -2032,7 +1997,7 @@
       <c r="A3" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>274</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -2049,7 +2014,7 @@
       <c r="A4" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -2069,7 +2034,7 @@
       <c r="A5" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -2172,7 +2137,7 @@
         <v>191</v>
       </c>
       <c r="B11" s="27">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>231</v>
@@ -2233,7 +2198,7 @@
       <c r="A15" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>2</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -2250,7 +2215,7 @@
       <c r="A16" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="42">
         <v>2</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -2284,7 +2249,7 @@
       <c r="A18" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>0.1</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -2301,7 +2266,7 @@
       <c r="A19" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <v>0.2</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -2378,7 +2343,7 @@
       <c r="A23" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="41">
         <v>0.1</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -2398,7 +2363,7 @@
       <c r="A24" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="41">
         <v>0.1</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -2418,7 +2383,7 @@
       <c r="A25" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="41">
         <v>0.3</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -2437,7 +2402,7 @@
         <v>182</v>
       </c>
       <c r="B26" s="32">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>232</v>
@@ -2493,7 +2458,7 @@
       <c r="A29" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="27">
         <v>0.5</v>
       </c>
       <c r="C29" s="26" t="s">
@@ -2513,7 +2478,7 @@
       <c r="A30" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="27">
         <v>0.8</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -2554,7 +2519,7 @@
         <v>240</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>241</v>
@@ -2703,7 +2668,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2717,7 +2682,7 @@
     <col min="7" max="7" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="120.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="116.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -2767,7 +2732,7 @@
       <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>93</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -2794,687 +2759,647 @@
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="44">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="49">
-        <v>0</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-    </row>
-    <row r="3" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="G10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52" t="s">
+      <c r="G11" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-    </row>
-    <row r="4" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="J12" s="45"/>
+      <c r="K12" s="45">
+        <v>2</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="H4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-    </row>
-    <row r="5" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="C16" s="44">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45">
+        <v>2</v>
+      </c>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="50" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-    </row>
-    <row r="6" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="G17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="50" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-    </row>
-    <row r="7" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="48" t="s">
+      <c r="G18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="50" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-    </row>
-    <row r="8" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" s="48" t="s">
+      <c r="G19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="K19" s="45">
+        <v>1</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-    </row>
-    <row r="9" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="G21" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-    </row>
-    <row r="10" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="50" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-    </row>
-    <row r="11" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="48" t="s">
+      <c r="G22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="50" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-    </row>
-    <row r="12" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="50" t="s">
+      <c r="G23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52">
-        <v>2</v>
-      </c>
-      <c r="L12" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-    </row>
-    <row r="13" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-    </row>
-    <row r="14" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-    </row>
-    <row r="15" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-    </row>
-    <row r="16" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="49">
-        <v>2</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52">
-        <v>2</v>
-      </c>
-      <c r="L16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-    </row>
-    <row r="17" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-    </row>
-    <row r="18" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-    </row>
-    <row r="19" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="K19" s="52">
+      <c r="G24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45">
         <v>1</v>
       </c>
-      <c r="L19" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-    </row>
-    <row r="20" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="H20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-    </row>
-    <row r="21" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-    </row>
-    <row r="22" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>318</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-    </row>
-    <row r="23" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-    </row>
-    <row r="24" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52">
-        <v>1</v>
-      </c>
-      <c r="L24" s="52"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="38"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="G26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="38"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3494,8 +3419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3566,613 +3491,573 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="b">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="50" t="b">
+      <c r="E2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="25">
         <v>0.5</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="J2" s="55">
+      <c r="I2" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="16">
         <v>41640</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K2" s="46">
         <v>42735</v>
       </c>
-      <c r="N2" s="50"/>
+      <c r="N2" s="15"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50" t="b">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="50" t="b">
+      <c r="E3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="25">
         <v>0.75</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="J3" s="55">
+      <c r="I3" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="J3" s="16">
         <v>41640</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="46">
         <v>42735</v>
       </c>
-      <c r="N3" s="50"/>
+      <c r="N3" s="15"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50" t="b">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="b">
+      <c r="E4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="25">
         <v>0.25</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="J4" s="55">
+      <c r="I4" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="16">
         <v>41640</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="46">
         <v>42735</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="15"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="b">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="50" t="b">
+      <c r="E5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="25">
         <v>0.5</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="55">
+      <c r="J5" s="16">
         <v>41640</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="46">
         <v>42735</v>
       </c>
-      <c r="N5" s="50"/>
+      <c r="N5" s="15"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50" t="b">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="50" t="b">
+      <c r="E6" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
+      <c r="K6" s="46"/>
       <c r="M6" s="23">
         <v>1</v>
       </c>
-      <c r="N6" s="50"/>
+      <c r="N6" s="15"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50" t="b">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="50" t="b">
+      <c r="E7" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="K7" s="46"/>
       <c r="M7" s="23">
         <v>0.25</v>
       </c>
-      <c r="N7" s="50"/>
+      <c r="N7" s="15"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50" t="b">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="50" t="b">
+      <c r="E8" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="25">
         <v>0.5</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="J8" s="55">
-        <v>41640</v>
-      </c>
-      <c r="K8" s="56">
+      <c r="I8" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="J8" s="16">
+        <v>42005</v>
+      </c>
+      <c r="K8" s="46">
         <v>42735</v>
       </c>
-      <c r="N8" s="50"/>
+      <c r="N8" s="15"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50" t="b">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="50" t="b">
+      <c r="E9" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="K9" s="46"/>
       <c r="M9" s="23">
         <v>1</v>
       </c>
-      <c r="N9" s="50"/>
+      <c r="N9" s="15"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50" t="b">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="50" t="b">
+      <c r="E10" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="K10" s="46"/>
       <c r="M10" s="23">
         <v>0</v>
       </c>
-      <c r="N10" s="50"/>
+      <c r="N10" s="15"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50" t="b">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="50" t="b">
+      <c r="E11" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="25">
         <v>0.5</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="J11" s="55">
-        <v>41640</v>
-      </c>
-      <c r="K11" s="56">
+      <c r="I11" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="J11" s="16">
+        <v>42005</v>
+      </c>
+      <c r="K11" s="46">
         <v>42735</v>
       </c>
-      <c r="N11" s="50"/>
+      <c r="N11" s="15"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50" t="b">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="50" t="b">
+      <c r="E12" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="K12" s="46"/>
       <c r="M12" s="23">
         <v>0.25</v>
       </c>
-      <c r="N12" s="50"/>
+      <c r="N12" s="15"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50" t="b">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="50" t="b">
+      <c r="E13" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
+      <c r="K13" s="46"/>
       <c r="M13" s="23">
         <v>1</v>
       </c>
-      <c r="N13" s="50"/>
+      <c r="N13" s="15"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
     </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" s="58" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="58" t="b">
+      <c r="C14" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="58" t="b">
+      <c r="E14" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
       <c r="N14" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="N15" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="N16" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="O16" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="O14" s="66" t="s">
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23">
+        <v>1</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-    </row>
-    <row r="15" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" s="58" t="s">
+      <c r="P18" s="22"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="58" t="b">
+      <c r="C19" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="58" t="b">
+      <c r="E19" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="O15" s="66" t="s">
+      <c r="F19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-    </row>
-    <row r="16" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="O16" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-    </row>
-    <row r="17" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D17" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62">
-        <v>0.46</v>
-      </c>
-      <c r="O17" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-    </row>
-    <row r="18" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D18" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62">
-        <v>1</v>
-      </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-    </row>
-    <row r="19" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="62">
-        <v>0</v>
-      </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4251,7 +4136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>250</v>
       </c>
@@ -4260,36 +4145,36 @@
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="47">
+        <v>1</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="F2" s="63" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="63">
-        <v>1</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="I2" s="54">
+      <c r="I2" s="25">
         <v>0.5</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2" s="25">
         <v>1.5</v>
       </c>
-      <c r="K2" s="54">
+      <c r="K2" s="25">
         <v>0.25</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="43" t="s">
         <v>110</v>
       </c>
       <c r="O2" s="25"/>
-      <c r="P2" s="44"/>
-    </row>
-    <row r="3" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="43"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>250</v>
       </c>
@@ -4298,36 +4183,36 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="47">
+        <v>2</v>
+      </c>
+      <c r="H3" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="F3" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="63">
-        <v>2</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="I3" s="54">
+      <c r="I3" s="25">
         <v>0.7</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="25">
         <v>1.3</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="25">
         <v>0.1</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="64" t="s">
-        <v>348</v>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="43" t="s">
+        <v>345</v>
       </c>
       <c r="O3" s="25"/>
-      <c r="P3" s="44"/>
-    </row>
-    <row r="4" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>250</v>
       </c>
@@ -4336,36 +4221,36 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="47">
         <v>2</v>
       </c>
-      <c r="H4" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="I4" s="54">
+      <c r="H4" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4" s="25">
         <v>0.7</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="25">
         <v>1.3</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="25">
         <v>0.1</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="64" t="s">
-        <v>348</v>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="43" t="s">
+        <v>345</v>
       </c>
       <c r="O4" s="25"/>
-      <c r="P4" s="44"/>
-    </row>
-    <row r="5" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>250</v>
       </c>
@@ -4374,36 +4259,36 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="47">
         <v>2</v>
       </c>
-      <c r="H5" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="I5" s="54">
+      <c r="H5" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="25">
         <v>0.7</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="25">
         <v>1.3</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="25">
         <v>0.1</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="64" t="s">
-        <v>348</v>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="43" t="s">
+        <v>345</v>
       </c>
       <c r="O5" s="25"/>
-      <c r="P5" s="44"/>
-    </row>
-    <row r="6" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>250</v>
       </c>
@@ -4412,36 +4297,36 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="63" t="s">
-        <v>351</v>
-      </c>
-      <c r="F6" s="63" t="s">
+      <c r="E6" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="47">
         <v>2</v>
       </c>
-      <c r="H6" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="I6" s="54">
+      <c r="H6" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" s="25">
         <v>0.7</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="25">
         <v>1.3</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="25">
         <v>0.1</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="64" t="s">
-        <v>348</v>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="43" t="s">
+        <v>345</v>
       </c>
       <c r="O6" s="25"/>
-      <c r="P6" s="44"/>
-    </row>
-    <row r="7" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="43"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>270</v>
       </c>
@@ -4452,32 +4337,32 @@
         <v>251</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47">
         <v>1</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="25">
         <v>0</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="25">
         <v>0.5</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="25">
         <v>0.1</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="64" t="s">
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="43" t="s">
         <v>112</v>
       </c>
       <c r="O7" s="25"/>
-      <c r="P7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>270</v>
       </c>
@@ -4490,26 +4375,26 @@
       <c r="D8" s="15">
         <v>100</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="63">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="47">
         <v>1</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="64" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="43" t="s">
         <v>113</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="44"/>
-    </row>
-    <row r="9" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>270</v>
       </c>
@@ -4522,203 +4407,203 @@
       <c r="D9" s="15">
         <v>0.25</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="63">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="47">
         <v>1</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="64" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="43" t="s">
         <v>114</v>
       </c>
       <c r="O9" s="15"/>
-      <c r="P9" s="44"/>
+      <c r="P9" s="43"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="15"/>
     </row>
   </sheetData>
@@ -4746,19 +4631,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>14</v>
       </c>
     </row>
